--- a/Tests_xlsx/ArraySorters.xlsx
+++ b/Tests_xlsx/ArraySorters.xlsx
@@ -518,25 +518,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="87791488"/>
-        <c:axId val="87793024"/>
+        <c:axId val="95713536"/>
+        <c:axId val="95813632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="87791488"/>
+        <c:axId val="95713536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87793024"/>
+        <c:crossAx val="95813632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87793024"/>
+        <c:axId val="95813632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -544,7 +544,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87791488"/>
+        <c:crossAx val="95713536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -563,7 +563,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -892,7 +892,7 @@
   <dimension ref="A1:AB31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1139,7 +1139,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
